--- a/xlsx/新罕布什尔州_intext.xlsx
+++ b/xlsx/新罕布什尔州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="501">
   <si>
     <t>新罕布什尔州</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_新罕布什尔州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_新罕布什尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E%E5%B7%9E%E6%97%97</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%BE%B9%E6%96%AF%E7%89%B9_(%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>曼徹斯特 (新罕布什爾州)</t>
+    <t>曼彻斯特 (新罕布什尔州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%C2%B7%E8%98%87%E5%8A%AA%E5%8A%AA</t>
   </si>
   <si>
-    <t>克里斯·蘇努努</t>
+    <t>克里斯·苏努努</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E5%A7%AC%C2%B7%E5%93%88%E6%A1%91</t>
   </si>
   <si>
-    <t>瑪姬·哈桑</t>
+    <t>玛姬·哈桑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -197,9 +197,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
   </si>
   <si>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E9%81%B8</t>
   </si>
   <si>
-    <t>初選</t>
+    <t>初选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B1%E5%B2%97%E5%B2%A9</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%99%AE%E9%83%A1</t>
   </si>
   <si>
-    <t>漢普郡</t>
+    <t>汉普郡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fort_William_and_Mary</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97_(%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>柏林 (新罕布什爾州)</t>
+    <t>柏林 (新罕布什尔州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%88%A9%E8%A7%92%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%88%97%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>保羅·列維爾</t>
+    <t>保罗·列维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A6%E5%85%8B%E5%B1%B1%E6%88%98%E5%BD%B9</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%E9%81%9C%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>傑克遜民主</t>
+    <t>杰克逊民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E7%9A%AE%E5%B0%94%E6%96%AF</t>
@@ -425,7 +422,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E%E5%8F%82%E8%AE%AE%E9%99%A2</t>
@@ -521,85 +518,85 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口普查局</t>
+    <t>美国人口普查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%99%BD%E4%BA%BA</t>
   </si>
   <si>
-    <t>美國白人</t>
+    <t>美国白人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>法國人</t>
+    <t>法国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E4%BA%BA</t>
@@ -689,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E4%BA%BA</t>
   </si>
   <si>
-    <t>義大利人</t>
+    <t>义大利人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E4%BA%BA</t>
@@ -707,13 +704,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>蘇格蘭人</t>
+    <t>苏格兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>波蘭人</t>
+    <t>波兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E4%BA%BA</t>
@@ -731,19 +728,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>希臘人</t>
+    <t>希腊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>荷蘭人</t>
+    <t>荷兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>愛爾蘭裔美國人</t>
+    <t>爱尔兰裔美国人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%BE%AA%E9%81%93%E5%AE%97</t>
   </si>
   <si>
-    <t>聯合循道宗</t>
+    <t>联合循道宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%AC%A1%E8%8C%85%E6%96%AF_(%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E)</t>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9</t>
   </si>
   <si>
-    <t>非營利</t>
+    <t>非营利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%88%A9%E6%99%AE%E6%96%AF%E5%9F%83%E5%85%8B%E5%A1%9E%E7%89%B9%E5%AD%A6%E9%99%A2</t>
@@ -833,19 +830,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>新罕布什爾大學</t>
+    <t>新罕布什尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%89%B9%E8%8C%85%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>達特茅斯學院</t>
+    <t>达特茅斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南新罕布什爾大學</t>
+    <t>南新罕布什尔大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/89%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -881,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E5%B7%B4%E5%AB%A9_(%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E)</t>
   </si>
   <si>
-    <t>萊巴嫩 (新罕布什爾州)</t>
+    <t>莱巴嫩 (新罕布什尔州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/93%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -959,13 +956,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻萨诸塞州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%9A%9B%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>城際巴士</t>
+    <t>城际巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%85%89%E9%93%81%E8%B7%AF</t>
@@ -989,13 +983,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E9%81%8B%E5%8B%95%E6%B1%BD%E8%BB%8A%E7%AB%B6%E8%B3%BD%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>全國運動汽車競賽協會</t>
+    <t>全国运动汽车竞赛协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%B6%B3%E7%90%83%E8%81%AF%E8%B3%BD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國足球聯賽系統</t>
+    <t>美国足球联赛系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E</t>
@@ -1007,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>汽車</t>
+    <t>汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E5%B8%A6</t>
@@ -1019,13 +1013,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
+    <t>摩托车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%9B%94</t>
   </si>
   <si>
-    <t>頭盔</t>
+    <t>头盔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92</t>
@@ -1043,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E4%BD%9B%E6%B4%9B%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>羅伯特·佛洛斯特</t>
+    <t>罗伯特·佛洛斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%A1%91%E5%BE%B7%E5%8B%92</t>
@@ -1073,7 +1067,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -1097,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1115,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1139,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1175,7 +1169,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1205,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1217,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1229,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1277,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1295,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1343,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1361,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1373,19 +1367,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1403,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1415,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1427,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1439,25 +1433,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1487,7 +1481,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1505,7 +1499,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1517,7 +1511,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2764,7 +2758,7 @@
         <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>47</v>
@@ -2790,10 +2784,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>6</v>
@@ -2819,10 +2813,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -2848,10 +2842,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>11</v>
@@ -2877,10 +2871,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>8</v>
@@ -2906,10 +2900,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2935,10 +2929,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>10</v>
@@ -2964,10 +2958,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2993,10 +2987,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3022,10 +3016,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3051,10 +3045,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>3</v>
@@ -3083,7 +3077,7 @@
         <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3109,10 +3103,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3167,10 +3161,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" t="s">
         <v>83</v>
-      </c>
-      <c r="F45" t="s">
-        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -3196,10 +3190,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>84</v>
+      </c>
+      <c r="F46" t="s">
         <v>85</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -3225,10 +3219,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>88</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -3254,10 +3248,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" t="s">
         <v>89</v>
-      </c>
-      <c r="F48" t="s">
-        <v>90</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3283,10 +3277,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" t="s">
         <v>91</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3312,10 +3306,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" t="s">
         <v>93</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3341,10 +3335,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" t="s">
         <v>75</v>
-      </c>
-      <c r="F51" t="s">
-        <v>76</v>
       </c>
       <c r="G51" t="n">
         <v>8</v>
@@ -3370,10 +3364,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>94</v>
+      </c>
+      <c r="F52" t="s">
         <v>95</v>
-      </c>
-      <c r="F52" t="s">
-        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3399,10 +3393,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" t="s">
         <v>97</v>
-      </c>
-      <c r="F53" t="s">
-        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3428,10 +3422,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="F54" t="s">
-        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3457,10 +3451,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" t="s">
         <v>101</v>
-      </c>
-      <c r="F55" t="s">
-        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3486,10 +3480,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
         <v>103</v>
-      </c>
-      <c r="F56" t="s">
-        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3515,10 +3509,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" t="s">
         <v>105</v>
-      </c>
-      <c r="F57" t="s">
-        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3544,10 +3538,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" t="s">
         <v>107</v>
-      </c>
-      <c r="F58" t="s">
-        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>4</v>
@@ -3573,10 +3567,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s">
         <v>77</v>
-      </c>
-      <c r="F59" t="s">
-        <v>78</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3602,10 +3596,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" t="s">
         <v>109</v>
-      </c>
-      <c r="F60" t="s">
-        <v>110</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3631,10 +3625,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>110</v>
+      </c>
+      <c r="F61" t="s">
         <v>111</v>
-      </c>
-      <c r="F61" t="s">
-        <v>112</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3660,10 +3654,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>110</v>
+      </c>
+      <c r="F62" t="s">
         <v>111</v>
-      </c>
-      <c r="F62" t="s">
-        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3689,10 +3683,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>112</v>
+      </c>
+      <c r="F63" t="s">
         <v>113</v>
-      </c>
-      <c r="F63" t="s">
-        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3718,10 +3712,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>114</v>
+      </c>
+      <c r="F64" t="s">
         <v>115</v>
-      </c>
-      <c r="F64" t="s">
-        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3747,10 +3741,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" t="s">
         <v>117</v>
-      </c>
-      <c r="F65" t="s">
-        <v>118</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3776,10 +3770,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" t="s">
         <v>119</v>
-      </c>
-      <c r="F66" t="s">
-        <v>120</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3805,10 +3799,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" t="s">
         <v>121</v>
-      </c>
-      <c r="F67" t="s">
-        <v>122</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3834,10 +3828,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>122</v>
+      </c>
+      <c r="F68" t="s">
         <v>123</v>
-      </c>
-      <c r="F68" t="s">
-        <v>124</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3863,10 +3857,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" t="s">
         <v>125</v>
-      </c>
-      <c r="F69" t="s">
-        <v>126</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3892,10 +3886,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" t="s">
         <v>127</v>
-      </c>
-      <c r="F70" t="s">
-        <v>128</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3921,10 +3915,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71" t="s">
         <v>129</v>
-      </c>
-      <c r="F71" t="s">
-        <v>130</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3950,10 +3944,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" t="s">
         <v>131</v>
-      </c>
-      <c r="F72" t="s">
-        <v>132</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3979,10 +3973,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
         <v>133</v>
-      </c>
-      <c r="F73" t="s">
-        <v>134</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4008,10 +4002,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" t="s">
         <v>135</v>
-      </c>
-      <c r="F74" t="s">
-        <v>136</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4037,10 +4031,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" t="s">
         <v>137</v>
-      </c>
-      <c r="F75" t="s">
-        <v>138</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4066,10 +4060,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76" t="s">
         <v>139</v>
-      </c>
-      <c r="F76" t="s">
-        <v>140</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4095,10 +4089,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>140</v>
+      </c>
+      <c r="F77" t="s">
         <v>141</v>
-      </c>
-      <c r="F77" t="s">
-        <v>142</v>
       </c>
       <c r="G77" t="n">
         <v>10</v>
@@ -4153,10 +4147,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" t="s">
         <v>143</v>
-      </c>
-      <c r="F79" t="s">
-        <v>144</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4182,10 +4176,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" t="s">
         <v>145</v>
-      </c>
-      <c r="F80" t="s">
-        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -4211,10 +4205,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" t="s">
         <v>147</v>
-      </c>
-      <c r="F81" t="s">
-        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4269,10 +4263,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F83" t="s">
         <v>149</v>
-      </c>
-      <c r="F83" t="s">
-        <v>150</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4298,10 +4292,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" t="s">
         <v>151</v>
-      </c>
-      <c r="F84" t="s">
-        <v>152</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4327,10 +4321,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>152</v>
+      </c>
+      <c r="F85" t="s">
         <v>153</v>
-      </c>
-      <c r="F85" t="s">
-        <v>154</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4356,10 +4350,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>154</v>
+      </c>
+      <c r="F86" t="s">
         <v>155</v>
-      </c>
-      <c r="F86" t="s">
-        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4385,10 +4379,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>156</v>
+      </c>
+      <c r="F87" t="s">
         <v>157</v>
-      </c>
-      <c r="F87" t="s">
-        <v>158</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4414,10 +4408,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>158</v>
+      </c>
+      <c r="F88" t="s">
         <v>159</v>
-      </c>
-      <c r="F88" t="s">
-        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -4443,10 +4437,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" t="s">
         <v>161</v>
-      </c>
-      <c r="F89" t="s">
-        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4472,10 +4466,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>162</v>
+      </c>
+      <c r="F90" t="s">
         <v>163</v>
-      </c>
-      <c r="F90" t="s">
-        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4501,10 +4495,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>164</v>
+      </c>
+      <c r="F91" t="s">
         <v>165</v>
-      </c>
-      <c r="F91" t="s">
-        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4530,10 +4524,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>166</v>
+      </c>
+      <c r="F92" t="s">
         <v>167</v>
-      </c>
-      <c r="F92" t="s">
-        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4559,10 +4553,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>168</v>
+      </c>
+      <c r="F93" t="s">
         <v>169</v>
-      </c>
-      <c r="F93" t="s">
-        <v>170</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4588,10 +4582,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" t="s">
         <v>171</v>
-      </c>
-      <c r="F94" t="s">
-        <v>172</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4617,10 +4611,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>172</v>
+      </c>
+      <c r="F95" t="s">
         <v>173</v>
-      </c>
-      <c r="F95" t="s">
-        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4646,10 +4640,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>174</v>
+      </c>
+      <c r="F96" t="s">
         <v>175</v>
-      </c>
-      <c r="F96" t="s">
-        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4675,10 +4669,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>176</v>
+      </c>
+      <c r="F97" t="s">
         <v>177</v>
-      </c>
-      <c r="F97" t="s">
-        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4704,10 +4698,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>178</v>
+      </c>
+      <c r="F98" t="s">
         <v>179</v>
-      </c>
-      <c r="F98" t="s">
-        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4733,10 +4727,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>180</v>
+      </c>
+      <c r="F99" t="s">
         <v>181</v>
-      </c>
-      <c r="F99" t="s">
-        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4762,10 +4756,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>182</v>
+      </c>
+      <c r="F100" t="s">
         <v>183</v>
-      </c>
-      <c r="F100" t="s">
-        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4791,10 +4785,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>184</v>
+      </c>
+      <c r="F101" t="s">
         <v>185</v>
-      </c>
-      <c r="F101" t="s">
-        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4820,10 +4814,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>186</v>
+      </c>
+      <c r="F102" t="s">
         <v>187</v>
-      </c>
-      <c r="F102" t="s">
-        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4849,10 +4843,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>188</v>
+      </c>
+      <c r="F103" t="s">
         <v>189</v>
-      </c>
-      <c r="F103" t="s">
-        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4878,10 +4872,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" t="s">
         <v>191</v>
-      </c>
-      <c r="F104" t="s">
-        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>7</v>
@@ -4907,10 +4901,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" t="s">
         <v>193</v>
-      </c>
-      <c r="F105" t="s">
-        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4936,10 +4930,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>194</v>
+      </c>
+      <c r="F106" t="s">
         <v>195</v>
-      </c>
-      <c r="F106" t="s">
-        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4965,10 +4959,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>196</v>
+      </c>
+      <c r="F107" t="s">
         <v>197</v>
-      </c>
-      <c r="F107" t="s">
-        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4994,10 +4988,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>198</v>
+      </c>
+      <c r="F108" t="s">
         <v>199</v>
-      </c>
-      <c r="F108" t="s">
-        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5023,10 +5017,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" t="s">
         <v>201</v>
-      </c>
-      <c r="F109" t="s">
-        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5052,10 +5046,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>202</v>
+      </c>
+      <c r="F110" t="s">
         <v>203</v>
-      </c>
-      <c r="F110" t="s">
-        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5081,10 +5075,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>204</v>
+      </c>
+      <c r="F111" t="s">
         <v>205</v>
-      </c>
-      <c r="F111" t="s">
-        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5110,10 +5104,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>206</v>
+      </c>
+      <c r="F112" t="s">
         <v>207</v>
-      </c>
-      <c r="F112" t="s">
-        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5139,10 +5133,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>208</v>
+      </c>
+      <c r="F113" t="s">
         <v>209</v>
-      </c>
-      <c r="F113" t="s">
-        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5168,10 +5162,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>210</v>
+      </c>
+      <c r="F114" t="s">
         <v>211</v>
-      </c>
-      <c r="F114" t="s">
-        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5197,10 +5191,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>212</v>
+      </c>
+      <c r="F115" t="s">
         <v>213</v>
-      </c>
-      <c r="F115" t="s">
-        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5226,10 +5220,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" t="s">
         <v>203</v>
-      </c>
-      <c r="F116" t="s">
-        <v>204</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -5255,10 +5249,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>204</v>
+      </c>
+      <c r="F117" t="s">
         <v>205</v>
-      </c>
-      <c r="F117" t="s">
-        <v>206</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5284,10 +5278,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>206</v>
+      </c>
+      <c r="F118" t="s">
         <v>207</v>
-      </c>
-      <c r="F118" t="s">
-        <v>208</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -5313,10 +5307,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>208</v>
+      </c>
+      <c r="F119" t="s">
         <v>209</v>
-      </c>
-      <c r="F119" t="s">
-        <v>210</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5342,10 +5336,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>214</v>
+      </c>
+      <c r="F120" t="s">
         <v>215</v>
-      </c>
-      <c r="F120" t="s">
-        <v>216</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5371,10 +5365,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>216</v>
+      </c>
+      <c r="F121" t="s">
         <v>217</v>
-      </c>
-      <c r="F121" t="s">
-        <v>218</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5400,10 +5394,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>218</v>
+      </c>
+      <c r="F122" t="s">
         <v>219</v>
-      </c>
-      <c r="F122" t="s">
-        <v>220</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5429,10 +5423,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>220</v>
+      </c>
+      <c r="F123" t="s">
         <v>221</v>
-      </c>
-      <c r="F123" t="s">
-        <v>222</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5458,10 +5452,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>222</v>
+      </c>
+      <c r="F124" t="s">
         <v>223</v>
-      </c>
-      <c r="F124" t="s">
-        <v>224</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5487,10 +5481,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>224</v>
+      </c>
+      <c r="F125" t="s">
         <v>225</v>
-      </c>
-      <c r="F125" t="s">
-        <v>226</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5516,10 +5510,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>226</v>
+      </c>
+      <c r="F126" t="s">
         <v>227</v>
-      </c>
-      <c r="F126" t="s">
-        <v>228</v>
       </c>
       <c r="G126" t="n">
         <v>12</v>
@@ -5545,10 +5539,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>228</v>
+      </c>
+      <c r="F127" t="s">
         <v>229</v>
-      </c>
-      <c r="F127" t="s">
-        <v>230</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5574,10 +5568,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>230</v>
+      </c>
+      <c r="F128" t="s">
         <v>231</v>
-      </c>
-      <c r="F128" t="s">
-        <v>232</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5603,10 +5597,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>232</v>
+      </c>
+      <c r="F129" t="s">
         <v>233</v>
-      </c>
-      <c r="F129" t="s">
-        <v>234</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5632,10 +5626,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>234</v>
+      </c>
+      <c r="F130" t="s">
         <v>235</v>
-      </c>
-      <c r="F130" t="s">
-        <v>236</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5661,10 +5655,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>228</v>
+      </c>
+      <c r="F131" t="s">
         <v>229</v>
-      </c>
-      <c r="F131" t="s">
-        <v>230</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5690,10 +5684,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>236</v>
+      </c>
+      <c r="F132" t="s">
         <v>237</v>
-      </c>
-      <c r="F132" t="s">
-        <v>238</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5719,10 +5713,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>238</v>
+      </c>
+      <c r="F133" t="s">
         <v>239</v>
-      </c>
-      <c r="F133" t="s">
-        <v>240</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5748,10 +5742,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>240</v>
+      </c>
+      <c r="F134" t="s">
         <v>241</v>
-      </c>
-      <c r="F134" t="s">
-        <v>242</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5777,10 +5771,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>242</v>
+      </c>
+      <c r="F135" t="s">
         <v>243</v>
-      </c>
-      <c r="F135" t="s">
-        <v>244</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5806,10 +5800,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>244</v>
+      </c>
+      <c r="F136" t="s">
         <v>245</v>
-      </c>
-      <c r="F136" t="s">
-        <v>246</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -5835,10 +5829,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>246</v>
+      </c>
+      <c r="F137" t="s">
         <v>247</v>
-      </c>
-      <c r="F137" t="s">
-        <v>248</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5864,10 +5858,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>248</v>
+      </c>
+      <c r="F138" t="s">
         <v>249</v>
-      </c>
-      <c r="F138" t="s">
-        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5893,10 +5887,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>250</v>
+      </c>
+      <c r="F139" t="s">
         <v>251</v>
-      </c>
-      <c r="F139" t="s">
-        <v>252</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5922,10 +5916,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>252</v>
+      </c>
+      <c r="F140" t="s">
         <v>253</v>
-      </c>
-      <c r="F140" t="s">
-        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5951,10 +5945,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>254</v>
+      </c>
+      <c r="F141" t="s">
         <v>255</v>
-      </c>
-      <c r="F141" t="s">
-        <v>256</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5980,10 +5974,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>256</v>
+      </c>
+      <c r="F142" t="s">
         <v>257</v>
-      </c>
-      <c r="F142" t="s">
-        <v>258</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6009,10 +6003,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>258</v>
+      </c>
+      <c r="F143" t="s">
         <v>259</v>
-      </c>
-      <c r="F143" t="s">
-        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>5</v>
@@ -6038,10 +6032,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>260</v>
+      </c>
+      <c r="F144" t="s">
         <v>261</v>
-      </c>
-      <c r="F144" t="s">
-        <v>262</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6067,10 +6061,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>262</v>
+      </c>
+      <c r="F145" t="s">
         <v>263</v>
-      </c>
-      <c r="F145" t="s">
-        <v>264</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6096,10 +6090,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>264</v>
+      </c>
+      <c r="F146" t="s">
         <v>265</v>
-      </c>
-      <c r="F146" t="s">
-        <v>266</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6125,10 +6119,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F147" t="s">
         <v>267</v>
-      </c>
-      <c r="F147" t="s">
-        <v>268</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6154,10 +6148,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>268</v>
+      </c>
+      <c r="F148" t="s">
         <v>269</v>
-      </c>
-      <c r="F148" t="s">
-        <v>270</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6183,10 +6177,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>270</v>
+      </c>
+      <c r="F149" t="s">
         <v>271</v>
-      </c>
-      <c r="F149" t="s">
-        <v>272</v>
       </c>
       <c r="G149" t="n">
         <v>7</v>
@@ -6212,10 +6206,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>272</v>
+      </c>
+      <c r="F150" t="s">
         <v>273</v>
-      </c>
-      <c r="F150" t="s">
-        <v>274</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6241,10 +6235,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>274</v>
+      </c>
+      <c r="F151" t="s">
         <v>275</v>
-      </c>
-      <c r="F151" t="s">
-        <v>276</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6270,10 +6264,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>276</v>
+      </c>
+      <c r="F152" t="s">
         <v>277</v>
-      </c>
-      <c r="F152" t="s">
-        <v>278</v>
       </c>
       <c r="G152" t="n">
         <v>4</v>
@@ -6299,10 +6293,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>278</v>
+      </c>
+      <c r="F153" t="s">
         <v>279</v>
-      </c>
-      <c r="F153" t="s">
-        <v>280</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6328,10 +6322,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>280</v>
+      </c>
+      <c r="F154" t="s">
         <v>281</v>
-      </c>
-      <c r="F154" t="s">
-        <v>282</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6357,10 +6351,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>282</v>
+      </c>
+      <c r="F155" t="s">
         <v>283</v>
-      </c>
-      <c r="F155" t="s">
-        <v>284</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6386,10 +6380,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>284</v>
+      </c>
+      <c r="F156" t="s">
         <v>285</v>
-      </c>
-      <c r="F156" t="s">
-        <v>286</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6415,10 +6409,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>286</v>
+      </c>
+      <c r="F157" t="s">
         <v>287</v>
-      </c>
-      <c r="F157" t="s">
-        <v>288</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6444,10 +6438,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>288</v>
+      </c>
+      <c r="F158" t="s">
         <v>289</v>
-      </c>
-      <c r="F158" t="s">
-        <v>290</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6473,10 +6467,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>290</v>
+      </c>
+      <c r="F159" t="s">
         <v>291</v>
-      </c>
-      <c r="F159" t="s">
-        <v>292</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6502,10 +6496,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>292</v>
+      </c>
+      <c r="F160" t="s">
         <v>293</v>
-      </c>
-      <c r="F160" t="s">
-        <v>294</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6531,10 +6525,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>294</v>
+      </c>
+      <c r="F161" t="s">
         <v>295</v>
-      </c>
-      <c r="F161" t="s">
-        <v>296</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6560,10 +6554,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>296</v>
+      </c>
+      <c r="F162" t="s">
         <v>297</v>
-      </c>
-      <c r="F162" t="s">
-        <v>298</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6589,10 +6583,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>298</v>
+      </c>
+      <c r="F163" t="s">
         <v>299</v>
-      </c>
-      <c r="F163" t="s">
-        <v>300</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6618,10 +6612,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>300</v>
+      </c>
+      <c r="F164" t="s">
         <v>301</v>
-      </c>
-      <c r="F164" t="s">
-        <v>302</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6647,10 +6641,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>302</v>
+      </c>
+      <c r="F165" t="s">
         <v>303</v>
-      </c>
-      <c r="F165" t="s">
-        <v>304</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6676,10 +6670,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>304</v>
+      </c>
+      <c r="F166" t="s">
         <v>305</v>
-      </c>
-      <c r="F166" t="s">
-        <v>306</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6705,10 +6699,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>306</v>
+      </c>
+      <c r="F167" t="s">
         <v>307</v>
-      </c>
-      <c r="F167" t="s">
-        <v>308</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6734,10 +6728,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>308</v>
+      </c>
+      <c r="F168" t="s">
         <v>309</v>
-      </c>
-      <c r="F168" t="s">
-        <v>310</v>
       </c>
       <c r="G168" t="n">
         <v>7</v>
@@ -6763,10 +6757,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>310</v>
+      </c>
+      <c r="F169" t="s">
         <v>311</v>
-      </c>
-      <c r="F169" t="s">
-        <v>312</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6792,10 +6786,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F170" t="s">
-        <v>314</v>
+        <v>63</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6821,10 +6815,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6850,10 +6844,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F172" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6879,10 +6873,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6908,10 +6902,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F174" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6937,10 +6931,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6966,10 +6960,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6995,10 +6989,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F177" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7024,10 +7018,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7053,10 +7047,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7082,10 +7076,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7111,10 +7105,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7140,10 +7134,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F182" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7169,10 +7163,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F183" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7198,10 +7192,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F184" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7227,10 +7221,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F185" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7256,10 +7250,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>120</v>
+      </c>
+      <c r="F186" t="s">
         <v>121</v>
-      </c>
-      <c r="F186" t="s">
-        <v>122</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7285,10 +7279,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7314,10 +7308,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G188" t="n">
         <v>7</v>
@@ -7343,10 +7337,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G189" t="n">
         <v>5</v>
@@ -7372,10 +7366,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7401,10 +7395,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G191" t="n">
         <v>206</v>
@@ -7430,10 +7424,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7459,10 +7453,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7488,10 +7482,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7517,10 +7511,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7546,10 +7540,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7575,10 +7569,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7604,10 +7598,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7633,10 +7627,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7662,10 +7656,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7691,10 +7685,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7720,10 +7714,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7749,10 +7743,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7778,10 +7772,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7807,10 +7801,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7836,10 +7830,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7865,10 +7859,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7894,10 +7888,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7923,10 +7917,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7952,10 +7946,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>66</v>
+      </c>
+      <c r="F210" t="s">
         <v>67</v>
-      </c>
-      <c r="F210" t="s">
-        <v>68</v>
       </c>
       <c r="G210" t="n">
         <v>9</v>
@@ -7981,10 +7975,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8010,10 +8004,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>62</v>
+      </c>
+      <c r="F212" t="s">
         <v>63</v>
-      </c>
-      <c r="F212" t="s">
-        <v>64</v>
       </c>
       <c r="G212" t="n">
         <v>6</v>
@@ -8039,10 +8033,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F213" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8068,10 +8062,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F214" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8097,10 +8091,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F215" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8126,10 +8120,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8155,10 +8149,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8184,10 +8178,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8213,10 +8207,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8242,10 +8236,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8271,10 +8265,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8300,10 +8294,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8329,10 +8323,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8358,10 +8352,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8387,10 +8381,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8416,10 +8410,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8445,10 +8439,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8474,10 +8468,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8503,10 +8497,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8532,10 +8526,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8561,10 +8555,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8590,10 +8584,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8619,10 +8613,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8648,10 +8642,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8677,10 +8671,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>64</v>
+      </c>
+      <c r="F235" t="s">
         <v>65</v>
-      </c>
-      <c r="F235" t="s">
-        <v>66</v>
       </c>
       <c r="G235" t="n">
         <v>12</v>
@@ -8706,10 +8700,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8735,10 +8729,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G237" t="n">
         <v>3</v>
@@ -8764,10 +8758,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8793,10 +8787,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F239" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8822,10 +8816,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F240" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8851,10 +8845,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F241" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8880,10 +8874,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F242" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8909,10 +8903,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F243" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8938,10 +8932,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F244" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8967,10 +8961,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F245" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -8996,10 +8990,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F246" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9025,10 +9019,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F247" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9054,10 +9048,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F248" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9083,10 +9077,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F249" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9112,10 +9106,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F250" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9141,10 +9135,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F251" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9170,10 +9164,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F252" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9199,10 +9193,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F253" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9228,10 +9222,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F254" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9257,10 +9251,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F255" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9286,10 +9280,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F256" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9315,10 +9309,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F257" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9344,10 +9338,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F258" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9373,10 +9367,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F259" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9402,10 +9396,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F260" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9431,10 +9425,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F261" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9460,10 +9454,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F262" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G262" t="n">
         <v>3</v>
@@ -9489,10 +9483,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F263" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9518,10 +9512,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F264" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9547,10 +9541,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F265" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9576,10 +9570,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F266" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9605,10 +9599,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F267" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9634,10 +9628,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F268" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
